--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3555.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3555.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.397595095467705</v>
+        <v>0.7687332034111023</v>
       </c>
       <c r="B1">
-        <v>1.512924550578441</v>
+        <v>0.9861460328102112</v>
       </c>
       <c r="C1">
-        <v>1.760568804640564</v>
+        <v>1.485002040863037</v>
       </c>
       <c r="D1">
-        <v>2.943544272332545</v>
+        <v>2.14806866645813</v>
       </c>
       <c r="E1">
-        <v>5.379958198426429</v>
+        <v>1.586078286170959</v>
       </c>
     </row>
   </sheetData>
